--- a/Data/Processed/Angiosperms/missing_powo_ipni/Proteaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Proteaceae.xlsx
@@ -1917,7 +1917,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 604. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 604. 1913</t>
         </is>
       </c>
       <c r="J28" t="b">
@@ -1995,7 +1995,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -2005,7 +2005,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bull. Soc. Bot. France 59(Mém. 3g): 604. 1913 </t>
+          <t>Bull. Soc. Bot. France 59(Mém. 3g): 604. 1913</t>
         </is>
       </c>
       <c r="J29" t="b">
@@ -2073,7 +2073,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -2083,7 +2083,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 12(1-2, Beibl. 27): 9. 1890 [24 Jun 1890] </t>
+          <t>Bot. Jahrb. Syst. 12(1-2, Beibl. 27): 9. 1890 [24 Jun 1890]</t>
         </is>
       </c>
       <c r="J30" t="b">
@@ -2151,7 +2151,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bot. Jahrb. Syst. 76(2): 157. 1954 [Jan 1954] </t>
+          <t>Bot. Jahrb. Syst. 76(2): 157. 1954 [Jan 1954]</t>
         </is>
       </c>
       <c r="J31" t="b">
